--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1429,10 +1441,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1476,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1522,28 +1534,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1643,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1736,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1833,10 +1845,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1880,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1926,28 +1938,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2035,10 +2047,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2082,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2128,28 +2140,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2237,10 +2249,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2284,28 +2296,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2330,28 +2342,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2468,10 +2480,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2515,28 +2527,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2561,28 +2573,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2670,10 +2682,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2717,28 +2729,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2763,28 +2775,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2872,10 +2884,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2919,28 +2931,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2965,28 +2977,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3074,10 +3086,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3121,28 +3133,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3167,28 +3179,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3276,10 +3288,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3323,28 +3335,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3369,28 +3381,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3478,10 +3490,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3525,28 +3537,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3571,28 +3583,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3680,10 +3692,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3727,28 +3739,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3773,28 +3785,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3882,10 +3894,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3929,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3975,28 +3987,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4084,10 +4096,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4131,28 +4143,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4177,28 +4189,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4373,10 +4385,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4420,28 +4432,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4466,28 +4478,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4575,10 +4587,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4622,28 +4634,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4668,28 +4680,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4777,10 +4789,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4824,28 +4836,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4870,28 +4882,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4979,10 +4991,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5026,28 +5038,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5072,28 +5084,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5222,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5257,28 +5269,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5315,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5412,10 +5424,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5459,28 +5471,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5505,28 +5517,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5585,10 +5597,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5632,28 +5644,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5678,28 +5690,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5758,10 +5770,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5805,28 +5817,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5851,28 +5863,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5931,10 +5943,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5978,28 +5990,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6024,28 +6036,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6249,10 +6261,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6296,28 +6308,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6342,28 +6354,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6480,10 +6492,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6527,28 +6539,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6573,28 +6585,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6653,10 +6665,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6700,28 +6712,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6746,28 +6758,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6826,10 +6838,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6873,28 +6885,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6919,28 +6931,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6999,10 +7011,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7046,28 +7058,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7092,28 +7104,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7172,10 +7184,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7219,28 +7231,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7265,28 +7277,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7345,10 +7357,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7392,28 +7404,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7438,28 +7450,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7518,10 +7530,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7565,28 +7577,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7611,28 +7623,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7691,10 +7703,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7738,28 +7750,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7784,28 +7796,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7864,10 +7876,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7911,28 +7923,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7957,28 +7969,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8182,10 +8194,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8229,28 +8241,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8275,28 +8287,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8355,10 +8367,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8402,28 +8414,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8448,28 +8460,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8528,10 +8540,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8575,28 +8587,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8621,28 +8633,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8730,10 +8742,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8777,28 +8789,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8823,28 +8835,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8903,10 +8915,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8950,28 +8962,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8996,28 +9008,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9105,10 +9117,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9152,28 +9164,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9198,28 +9210,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9278,10 +9290,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9325,28 +9337,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9371,28 +9383,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9509,10 +9521,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9556,28 +9568,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9602,28 +9614,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9711,10 +9723,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9758,28 +9770,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9804,28 +9816,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9884,10 +9896,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9931,28 +9943,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9977,28 +9989,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10057,10 +10069,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10104,28 +10116,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10150,28 +10162,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10230,10 +10242,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="2" t="s">
+      <c r="J350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10277,28 +10289,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="A352" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="2">
+      <c r="C352" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10323,28 +10335,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="2">
+      <c r="C354" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="2">
+      <c r="D354" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="2">
+      <c r="I354" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10403,10 +10415,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11208" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -402,10 +450,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -449,28 +497,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="4">
+      <c r="C11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -495,28 +543,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -604,10 +652,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -651,28 +699,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="4">
+      <c r="C18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -697,28 +745,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -806,10 +854,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -853,28 +901,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="4">
+      <c r="A25" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="4">
+      <c r="C25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -899,28 +947,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="4">
+      <c r="I27" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1066,10 +1114,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1113,28 +1161,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="4">
+      <c r="C34" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1159,28 +1207,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="4">
+      <c r="I36" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1239,10 +1287,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1286,28 +1334,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="C40" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1332,28 +1380,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1441,10 +1489,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1488,28 +1536,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="4">
+      <c r="A47" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="4">
+      <c r="C47" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1534,28 +1582,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="4">
+      <c r="I49" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1643,10 +1691,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1690,28 +1738,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="4">
+      <c r="C54" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1736,28 +1784,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1845,10 +1893,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="4" t="s">
+      <c r="J59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1892,28 +1940,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="4">
+      <c r="C61" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1938,28 +1986,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2047,10 +2095,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="4" t="s">
+      <c r="J66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2094,28 +2142,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="4">
+      <c r="C68" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2140,28 +2188,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D70" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="4">
+      <c r="I70" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2249,10 +2297,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="4" t="s">
+      <c r="J73" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2296,28 +2344,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="4">
+      <c r="A75" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="4">
+      <c r="C75" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2342,28 +2390,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="D77" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="4">
+      <c r="I77" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2480,10 +2528,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="J81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2527,28 +2575,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="C83" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2573,28 +2621,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="4">
+      <c r="I85" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2682,10 +2730,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2729,28 +2777,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2775,28 +2823,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2884,10 +2932,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="J95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2931,28 +2979,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="4">
+      <c r="C97" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2977,28 +3025,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3086,10 +3134,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="4" t="s">
+      <c r="J102" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3133,28 +3181,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="4">
+      <c r="A104" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="4">
+      <c r="C104" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3179,28 +3227,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="4">
+      <c r="C106" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="4">
+      <c r="D106" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="4">
+      <c r="I106" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3288,10 +3336,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="4" t="s">
+      <c r="J109" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3335,28 +3383,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="4">
+      <c r="A111" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="4">
+      <c r="C111" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3381,28 +3429,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="4">
+      <c r="C113" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="4">
+      <c r="D113" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="4">
+      <c r="I113" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3490,10 +3538,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="4" t="s">
+      <c r="J116" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3537,28 +3585,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="4">
+      <c r="A118" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="4">
+      <c r="C118" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3583,28 +3631,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="4">
+      <c r="C120" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="4">
+      <c r="D120" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="4">
+      <c r="G120" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="4">
+      <c r="H120" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="4">
+      <c r="I120" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3692,10 +3740,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="4" t="s">
+      <c r="J123" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3739,28 +3787,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="4">
+      <c r="A125" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="4">
+      <c r="C125" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3785,28 +3833,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="4">
+      <c r="C127" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="4">
+      <c r="D127" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="4">
+      <c r="I127" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3894,10 +3942,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3941,28 +3989,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3987,28 +4035,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4096,10 +4144,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="4" t="s">
+      <c r="J137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4143,28 +4191,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
+      <c r="A139" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="4">
+      <c r="C139" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4189,28 +4237,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="4">
+      <c r="I141" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4385,10 +4433,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="4" t="s">
+      <c r="J147" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4432,28 +4480,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="4">
+      <c r="A149" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="4">
+      <c r="C149" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4478,28 +4526,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="4">
+      <c r="I151" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4587,10 +4635,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="4" t="s">
+      <c r="J154" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4634,28 +4682,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="4">
+      <c r="A156" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="4">
+      <c r="C156" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4680,28 +4728,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="4">
+      <c r="I158" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4789,10 +4837,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="4" t="s">
+      <c r="J161" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4836,28 +4884,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="4">
+      <c r="A163" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="4">
+      <c r="C163" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4882,28 +4930,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="4">
+      <c r="C165" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="4">
+      <c r="D165" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="4">
+      <c r="I165" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4991,10 +5039,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5038,28 +5086,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5084,28 +5132,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5222,10 +5270,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="4" t="s">
+      <c r="J176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5269,28 +5317,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="4">
+      <c r="C178" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5315,28 +5363,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5424,10 +5472,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="4" t="s">
+      <c r="J183" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5471,28 +5519,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="4">
+      <c r="A185" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="4">
+      <c r="C185" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5517,28 +5565,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="4">
+      <c r="C187" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="4">
+      <c r="D187" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="4">
+      <c r="I187" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5597,10 +5645,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="4" t="s">
+      <c r="J189" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5644,28 +5692,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="4">
+      <c r="A191" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="4">
+      <c r="C191" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5690,28 +5738,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="4">
+      <c r="C193" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="4">
+      <c r="D193" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="4">
+      <c r="I193" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5770,10 +5818,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="4" t="s">
+      <c r="J195" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5817,28 +5865,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="4">
+      <c r="A197" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="4">
+      <c r="C197" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5863,28 +5911,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="4">
+      <c r="C199" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="4">
+      <c r="D199" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="4">
+      <c r="I199" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5943,10 +5991,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="4" t="s">
+      <c r="J201" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5990,28 +6038,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="4">
+      <c r="A203" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="4">
+      <c r="C203" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6036,28 +6084,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="4">
+      <c r="C205" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="4">
+      <c r="D205" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="4">
+      <c r="I205" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6261,10 +6309,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="4" t="s">
+      <c r="J212" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6308,28 +6356,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="4">
+      <c r="A214" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="4">
+      <c r="C214" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6354,28 +6402,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="4">
+      <c r="C216" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="4">
+      <c r="D216" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="4">
+      <c r="G216" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="4">
+      <c r="H216" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="4">
+      <c r="I216" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6492,10 +6540,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="4" t="s">
+      <c r="J220" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6539,28 +6587,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="4">
+      <c r="A222" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="4">
+      <c r="C222" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="4">
+      <c r="G222" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="4">
+      <c r="H222" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6585,28 +6633,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="4">
+      <c r="C224" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="4">
+      <c r="D224" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="4">
+      <c r="I224" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6665,10 +6713,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="4" t="s">
+      <c r="J226" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6712,28 +6760,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="4">
+      <c r="A228" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="4">
+      <c r="C228" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6758,28 +6806,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="4">
+      <c r="C230" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="4">
+      <c r="D230" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="4">
+      <c r="G230" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="4">
+      <c r="H230" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="4">
+      <c r="I230" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6838,10 +6886,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="4" t="s">
+      <c r="J232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6885,28 +6933,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="4">
+      <c r="A234" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="4">
+      <c r="C234" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6931,28 +6979,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="4">
+      <c r="C236" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="4">
+      <c r="D236" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="4">
+      <c r="I236" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7011,10 +7059,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="4" t="s">
+      <c r="J238" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7058,28 +7106,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="4">
+      <c r="A240" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="4">
+      <c r="C240" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7104,28 +7152,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="4">
+      <c r="C242" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="4">
+      <c r="D242" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="4">
+      <c r="I242" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7184,10 +7232,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="4" t="s">
+      <c r="J244" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7231,28 +7279,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="4">
+      <c r="A246" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="4">
+      <c r="C246" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7277,28 +7325,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="4">
+      <c r="C248" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="4">
+      <c r="D248" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="4">
+      <c r="I248" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7357,10 +7405,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="4" t="s">
+      <c r="J250" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7404,28 +7452,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="4">
+      <c r="A252" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="4">
+      <c r="C252" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7450,28 +7498,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="4">
+      <c r="C254" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="4">
+      <c r="D254" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="4">
+      <c r="I254" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7530,10 +7578,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="4" t="s">
+      <c r="J256" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7577,28 +7625,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="4">
+      <c r="A258" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="4">
+      <c r="C258" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7623,28 +7671,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="4">
+      <c r="C260" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="4">
+      <c r="D260" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="4">
+      <c r="I260" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7703,10 +7751,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="4" t="s">
+      <c r="J262" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7750,28 +7798,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="4">
+      <c r="A264" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="4">
+      <c r="C264" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7796,28 +7844,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="4">
+      <c r="C266" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="4">
+      <c r="D266" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="4">
+      <c r="I266" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7876,10 +7924,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="4" t="s">
+      <c r="J268" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7923,28 +7971,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="4">
+      <c r="A270" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="4">
+      <c r="C270" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7969,28 +8017,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="4">
+      <c r="C272" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="4">
+      <c r="D272" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="4">
+      <c r="E272" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="4">
+      <c r="F272" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="4">
+      <c r="G272" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="4">
+      <c r="H272" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="4">
+      <c r="I272" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8194,10 +8242,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="4" t="s">
+      <c r="J279" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8241,28 +8289,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="4">
+      <c r="A281" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="4">
+      <c r="C281" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8287,28 +8335,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="4">
+      <c r="C283" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="4">
+      <c r="D283" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="4">
+      <c r="I283" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8367,10 +8415,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="4" t="s">
+      <c r="J285" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8414,28 +8462,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="4">
+      <c r="A287" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="4">
+      <c r="C287" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8460,28 +8508,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="4">
+      <c r="C289" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="4">
+      <c r="D289" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="4">
+      <c r="I289" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8540,10 +8588,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="4" t="s">
+      <c r="J291" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8587,28 +8635,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="4">
+      <c r="A293" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="4">
+      <c r="C293" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8633,28 +8681,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="4">
+      <c r="C295" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="4">
+      <c r="D295" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="4">
+      <c r="I295" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8742,10 +8790,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="4" t="s">
+      <c r="J298" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8789,28 +8837,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="4">
+      <c r="A300" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="4">
+      <c r="C300" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8835,28 +8883,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="4">
+      <c r="C302" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="4">
+      <c r="D302" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="4">
+      <c r="I302" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8915,10 +8963,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="4" t="s">
+      <c r="J304" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8962,28 +9010,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="4">
+      <c r="A306" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="4">
+      <c r="C306" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9008,28 +9056,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="4">
+      <c r="B308" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="4">
+      <c r="C308" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="4">
+      <c r="D308" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="4">
+      <c r="E308" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="4">
+      <c r="F308" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="4">
+      <c r="G308" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="4">
+      <c r="H308" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="4">
+      <c r="I308" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9117,10 +9165,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="4" t="s">
+      <c r="J311" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9164,28 +9212,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="4">
+      <c r="A313" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="4">
+      <c r="C313" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9210,28 +9258,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="4">
+      <c r="C315" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="4">
+      <c r="D315" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="4">
+      <c r="E315" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="4">
+      <c r="F315" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="4">
+      <c r="G315" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="4">
+      <c r="H315" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="4">
+      <c r="I315" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9290,10 +9338,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="4" t="s">
+      <c r="J317" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9337,28 +9385,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="4">
+      <c r="A319" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="4">
+      <c r="C319" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9383,28 +9431,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="4">
+      <c r="C321" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="4">
+      <c r="D321" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="4">
+      <c r="I321" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9521,10 +9569,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="4" t="s">
+      <c r="J325" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9568,28 +9616,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="4">
+      <c r="A327" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="4">
+      <c r="C327" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9614,28 +9662,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="4">
+      <c r="C329" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="4">
+      <c r="D329" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="4">
+      <c r="I329" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9723,10 +9771,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="4" t="s">
+      <c r="J332" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9770,28 +9818,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="4">
+      <c r="A334" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="4">
+      <c r="B334" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="4">
+      <c r="C334" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="4">
+      <c r="E334" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="4">
+      <c r="F334" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="4">
+      <c r="G334" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="4">
+      <c r="H334" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9816,28 +9864,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="4">
+      <c r="B336" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="4">
+      <c r="C336" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="4">
+      <c r="D336" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="4">
+      <c r="E336" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="4">
+      <c r="F336" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="4">
+      <c r="G336" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="4">
+      <c r="H336" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="4">
+      <c r="I336" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9896,10 +9944,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="4" t="s">
+      <c r="J338" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9943,28 +9991,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="4">
+      <c r="A340" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="4">
+      <c r="B340" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="4">
+      <c r="C340" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="4">
+      <c r="E340" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="4">
+      <c r="F340" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="4">
+      <c r="G340" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="4">
+      <c r="H340" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9989,28 +10037,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="4">
+      <c r="B342" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="4">
+      <c r="C342" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="4">
+      <c r="D342" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="4">
+      <c r="E342" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="4">
+      <c r="F342" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="4">
+      <c r="G342" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="4">
+      <c r="H342" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="4">
+      <c r="I342" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10069,10 +10117,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="4" t="s">
+      <c r="J344" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10116,28 +10164,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="4">
+      <c r="A346" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="4">
+      <c r="B346" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="4">
+      <c r="C346" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="4">
+      <c r="E346" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="4">
+      <c r="F346" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="4">
+      <c r="G346" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="4">
+      <c r="H346" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10162,28 +10210,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="4">
+      <c r="B348" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="4">
+      <c r="C348" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="4">
+      <c r="D348" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="4">
+      <c r="E348" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="4">
+      <c r="F348" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="4">
+      <c r="G348" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="4">
+      <c r="H348" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="4">
+      <c r="I348" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10242,10 +10290,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="4" t="s">
+      <c r="J350" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10289,28 +10337,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="4">
+      <c r="A352" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="4">
+      <c r="B352" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="4">
+      <c r="C352" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="4">
+      <c r="E352" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="4">
+      <c r="F352" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="4">
+      <c r="G352" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="4">
+      <c r="H352" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10335,28 +10383,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="4">
+      <c r="B354" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="4">
+      <c r="C354" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="4">
+      <c r="D354" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="4">
+      <c r="E354" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="4">
+      <c r="F354" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="4">
+      <c r="G354" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="4">
+      <c r="H354" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="4">
+      <c r="I354" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10415,10 +10463,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="4" t="s">
+      <c r="J356" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11208" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14010" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -450,10 +468,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -497,28 +515,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="12">
+      <c r="C11" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -543,28 +561,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="12">
+      <c r="I13" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -652,10 +670,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -699,28 +717,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
+      <c r="C18" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -745,28 +763,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -854,10 +872,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -901,28 +919,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="12">
+      <c r="A25" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="12">
+      <c r="C25" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -947,28 +965,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="12">
+      <c r="I27" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1132,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1161,28 +1179,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="12">
+      <c r="C34" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1225,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1305,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="12" t="s">
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1334,28 +1352,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="12">
+      <c r="C40" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1398,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1507,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1536,28 +1554,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="12">
+      <c r="A47" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="12">
+      <c r="C47" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1600,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="12">
+      <c r="I49" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1709,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="J52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1738,28 +1756,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="12">
+      <c r="C54" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1802,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1911,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1940,28 +1958,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="12">
+      <c r="C61" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +2004,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2113,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="12" t="s">
+      <c r="J66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2142,28 +2160,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="12">
+      <c r="A68" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="12">
+      <c r="C68" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2206,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="12">
+      <c r="C70" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="12">
+      <c r="D70" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="12">
+      <c r="I70" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2297,10 +2315,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="12" t="s">
+      <c r="J73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2344,28 +2362,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="12">
+      <c r="A75" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="12">
+      <c r="C75" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2390,28 +2408,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="12">
+      <c r="C77" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="12">
+      <c r="D77" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="12">
+      <c r="I77" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2528,10 +2546,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2575,28 +2593,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="12">
+      <c r="A83" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="12">
+      <c r="C83" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2621,28 +2639,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="12">
+      <c r="I85" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2730,10 +2748,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2777,28 +2795,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2823,28 +2841,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2932,10 +2950,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="J95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2979,28 +2997,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="12">
+      <c r="C97" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3025,28 +3043,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3134,10 +3152,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="12" t="s">
+      <c r="J102" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3181,28 +3199,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="12">
+      <c r="A104" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="12">
+      <c r="C104" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3227,28 +3245,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="12">
+      <c r="C106" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="12">
+      <c r="D106" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="12">
+      <c r="I106" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3336,10 +3354,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="12" t="s">
+      <c r="J109" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3383,28 +3401,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="12">
+      <c r="A111" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="12">
+      <c r="C111" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3429,28 +3447,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="12">
+      <c r="C113" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="12">
+      <c r="D113" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="12">
+      <c r="I113" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3538,10 +3556,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="12" t="s">
+      <c r="J116" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3585,28 +3603,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="12">
+      <c r="A118" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="12">
+      <c r="C118" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3631,28 +3649,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="12">
+      <c r="C120" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="12">
+      <c r="D120" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="12">
+      <c r="E120" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="12">
+      <c r="F120" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="12">
+      <c r="I120" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3740,10 +3758,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="12" t="s">
+      <c r="J123" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3787,28 +3805,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="12">
+      <c r="A125" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="12">
+      <c r="C125" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3833,28 +3851,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="12">
+      <c r="C127" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="12">
+      <c r="D127" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="12">
+      <c r="I127" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3942,10 +3960,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3989,28 +4007,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4035,28 +4053,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4144,10 +4162,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="12" t="s">
+      <c r="J137" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4191,28 +4209,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="A139" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="12">
+      <c r="C139" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4237,28 +4255,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="12">
+      <c r="I141" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4433,10 +4451,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="12" t="s">
+      <c r="J147" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4480,28 +4498,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="12">
+      <c r="A149" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="12">
+      <c r="C149" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4526,28 +4544,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="12">
+      <c r="I151" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4635,10 +4653,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="12" t="s">
+      <c r="J154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4682,28 +4700,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="12">
+      <c r="A156" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="12">
+      <c r="C156" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4728,28 +4746,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="12">
+      <c r="I158" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4837,10 +4855,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="12" t="s">
+      <c r="J161" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4884,28 +4902,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="12">
+      <c r="A163" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="12">
+      <c r="C163" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4930,28 +4948,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="12">
+      <c r="C165" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="12">
+      <c r="D165" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="12">
+      <c r="I165" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5039,10 +5057,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5086,28 +5104,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5132,28 +5150,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5270,10 +5288,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12" t="s">
+      <c r="J176" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5317,28 +5335,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="12">
+      <c r="C178" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5363,28 +5381,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5490,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="12" t="s">
+      <c r="J183" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5519,28 +5537,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="12">
+      <c r="A185" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="12">
+      <c r="C185" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5583,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="12">
+      <c r="C187" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="12">
+      <c r="D187" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="12">
+      <c r="I187" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5645,10 +5663,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="12" t="s">
+      <c r="J189" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5692,28 +5710,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="12">
+      <c r="A191" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="12">
+      <c r="C191" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5738,28 +5756,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="12">
+      <c r="C193" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="12">
+      <c r="D193" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="12">
+      <c r="I193" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5818,10 +5836,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="12" t="s">
+      <c r="J195" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5865,28 +5883,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="12">
+      <c r="A197" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="12">
+      <c r="C197" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5911,28 +5929,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="12">
+      <c r="C199" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="12">
+      <c r="D199" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="12">
+      <c r="I199" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5991,10 +6009,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="12" t="s">
+      <c r="J201" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -6038,28 +6056,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="12">
+      <c r="A203" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="12">
+      <c r="C203" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6084,28 +6102,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="12">
+      <c r="C205" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="12">
+      <c r="D205" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="12">
+      <c r="I205" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6309,10 +6327,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="12" t="s">
+      <c r="J212" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6356,28 +6374,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="12">
+      <c r="A214" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="12">
+      <c r="C214" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6402,28 +6420,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="12">
+      <c r="C216" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="12">
+      <c r="D216" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="12">
+      <c r="E216" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="12">
+      <c r="F216" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="12">
+      <c r="G216" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="12">
+      <c r="H216" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="12">
+      <c r="I216" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6540,10 +6558,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="12" t="s">
+      <c r="J220" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6587,28 +6605,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="12">
+      <c r="A222" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="12">
+      <c r="C222" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="12">
+      <c r="E222" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="12">
+      <c r="F222" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="12">
+      <c r="G222" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="12">
+      <c r="H222" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6633,28 +6651,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="12">
+      <c r="C224" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="12">
+      <c r="D224" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="12">
+      <c r="I224" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6713,10 +6731,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="12" t="s">
+      <c r="J226" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6760,28 +6778,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="12">
+      <c r="A228" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="12">
+      <c r="C228" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6806,28 +6824,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="12">
+      <c r="C230" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="12">
+      <c r="D230" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="12">
+      <c r="E230" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="12">
+      <c r="F230" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="12">
+      <c r="G230" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="12">
+      <c r="H230" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="12">
+      <c r="I230" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6886,10 +6904,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="12" t="s">
+      <c r="J232" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6933,28 +6951,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="12">
+      <c r="A234" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="12">
+      <c r="C234" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6979,28 +6997,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="12">
+      <c r="C236" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="12">
+      <c r="D236" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="12">
+      <c r="I236" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7059,10 +7077,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="12" t="s">
+      <c r="J238" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7106,28 +7124,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="12">
+      <c r="A240" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="12">
+      <c r="C240" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7152,28 +7170,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="12">
+      <c r="C242" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="12">
+      <c r="D242" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="12">
+      <c r="I242" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7232,10 +7250,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="12" t="s">
+      <c r="J244" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7279,28 +7297,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="12">
+      <c r="A246" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="12">
+      <c r="C246" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7325,28 +7343,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="12">
+      <c r="C248" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="12">
+      <c r="D248" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="12">
+      <c r="I248" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7405,10 +7423,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="12" t="s">
+      <c r="J250" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7452,28 +7470,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="12">
+      <c r="A252" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="12">
+      <c r="C252" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7498,28 +7516,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="12">
+      <c r="C254" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="12">
+      <c r="D254" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="12">
+      <c r="I254" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7578,10 +7596,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="12" t="s">
+      <c r="J256" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7625,28 +7643,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="12">
+      <c r="A258" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="12">
+      <c r="C258" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7671,28 +7689,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="12">
+      <c r="C260" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="12">
+      <c r="D260" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="12">
+      <c r="I260" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7751,10 +7769,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="12" t="s">
+      <c r="J262" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7798,28 +7816,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="12">
+      <c r="A264" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="12">
+      <c r="C264" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7844,28 +7862,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="12">
+      <c r="C266" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="12">
+      <c r="D266" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="12">
+      <c r="I266" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7924,10 +7942,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="12" t="s">
+      <c r="J268" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7971,28 +7989,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="12">
+      <c r="A270" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="12">
+      <c r="C270" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8017,28 +8035,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="12">
+      <c r="C272" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="12">
+      <c r="D272" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="12">
+      <c r="E272" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="12">
+      <c r="F272" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="12">
+      <c r="G272" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="12">
+      <c r="H272" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="12">
+      <c r="I272" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8242,10 +8260,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="12" t="s">
+      <c r="J279" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8289,28 +8307,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="12">
+      <c r="A281" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="12">
+      <c r="C281" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8335,28 +8353,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="12">
+      <c r="C283" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="12">
+      <c r="D283" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="12">
+      <c r="I283" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8415,10 +8433,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="12" t="s">
+      <c r="J285" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8462,28 +8480,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="12">
+      <c r="A287" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="12">
+      <c r="C287" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8508,28 +8526,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="12">
+      <c r="C289" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="12">
+      <c r="D289" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="12">
+      <c r="I289" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8588,10 +8606,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="12" t="s">
+      <c r="J291" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8635,28 +8653,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="12">
+      <c r="A293" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="12">
+      <c r="C293" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8681,28 +8699,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="12">
+      <c r="C295" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="12">
+      <c r="D295" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="12">
+      <c r="I295" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8790,10 +8808,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="12" t="s">
+      <c r="J298" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8837,28 +8855,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="12">
+      <c r="A300" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="12">
+      <c r="C300" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8883,28 +8901,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="12">
+      <c r="C302" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="12">
+      <c r="D302" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="12">
+      <c r="I302" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8963,10 +8981,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="12" t="s">
+      <c r="J304" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -9010,28 +9028,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="12">
+      <c r="A306" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="12">
+      <c r="C306" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9056,28 +9074,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="12">
+      <c r="C308" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="12">
+      <c r="D308" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="12">
+      <c r="E308" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="12">
+      <c r="F308" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="12">
+      <c r="G308" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="12">
+      <c r="H308" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="12">
+      <c r="I308" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9165,10 +9183,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="12" t="s">
+      <c r="J311" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9212,28 +9230,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="12">
+      <c r="A313" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="12">
+      <c r="C313" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9258,28 +9276,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="12">
+      <c r="B315" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="12">
+      <c r="C315" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="12">
+      <c r="D315" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="12">
+      <c r="E315" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="12">
+      <c r="F315" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="12">
+      <c r="G315" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="12">
+      <c r="H315" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="12">
+      <c r="I315" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9338,10 +9356,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="12" t="s">
+      <c r="J317" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9385,28 +9403,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="12">
+      <c r="A319" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="12">
+      <c r="C319" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9431,28 +9449,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="12">
+      <c r="C321" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="12">
+      <c r="D321" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="12">
+      <c r="I321" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9569,10 +9587,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="12" t="s">
+      <c r="J325" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9616,28 +9634,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="12">
+      <c r="A327" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="12">
+      <c r="C327" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9662,28 +9680,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="12">
+      <c r="C329" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="12">
+      <c r="D329" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="12">
+      <c r="I329" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9771,10 +9789,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="12" t="s">
+      <c r="J332" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9818,28 +9836,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="12">
+      <c r="A334" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="12">
+      <c r="B334" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="12">
+      <c r="C334" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="12">
+      <c r="E334" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="12">
+      <c r="F334" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="12">
+      <c r="G334" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="12">
+      <c r="H334" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9864,28 +9882,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="12">
+      <c r="B336" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="12">
+      <c r="C336" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="12">
+      <c r="D336" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="12">
+      <c r="E336" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="12">
+      <c r="F336" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="12">
+      <c r="G336" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="12">
+      <c r="H336" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="12">
+      <c r="I336" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9944,10 +9962,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="12" t="s">
+      <c r="J338" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9991,28 +10009,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="12">
+      <c r="A340" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="12">
+      <c r="B340" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="12">
+      <c r="C340" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="12">
+      <c r="E340" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="12">
+      <c r="F340" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="12">
+      <c r="G340" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="12">
+      <c r="H340" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10037,28 +10055,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="12">
+      <c r="B342" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="12">
+      <c r="C342" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="12">
+      <c r="D342" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="12">
+      <c r="E342" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="12">
+      <c r="F342" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="12">
+      <c r="G342" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="12">
+      <c r="H342" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="12">
+      <c r="I342" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10117,10 +10135,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="12" t="s">
+      <c r="J344" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10164,28 +10182,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="12">
+      <c r="A346" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="12">
+      <c r="B346" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="12">
+      <c r="C346" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="12">
+      <c r="E346" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="12">
+      <c r="F346" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="12">
+      <c r="G346" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="12">
+      <c r="H346" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10210,28 +10228,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="12">
+      <c r="B348" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="12">
+      <c r="C348" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="12">
+      <c r="D348" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="12">
+      <c r="E348" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="12">
+      <c r="F348" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="12">
+      <c r="G348" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="12">
+      <c r="H348" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="12">
+      <c r="I348" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10290,10 +10308,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="12" t="s">
+      <c r="J350" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10337,28 +10355,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="12">
+      <c r="A352" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="12">
+      <c r="B352" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="12">
+      <c r="C352" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="12">
+      <c r="E352" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="12">
+      <c r="F352" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="12">
+      <c r="G352" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="12">
+      <c r="H352" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10383,28 +10401,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="12">
+      <c r="B354" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="12">
+      <c r="C354" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="12">
+      <c r="D354" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="12">
+      <c r="E354" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="12">
+      <c r="F354" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="12">
+      <c r="G354" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="12">
+      <c r="H354" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="12">
+      <c r="I354" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10463,10 +10481,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="12" t="s">
+      <c r="J356" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
